--- a/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
+++ b/StructureDefinition-bc-deathdate-flag-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
